--- a/NOX_ISPRED.xlsx
+++ b/NOX_ISPRED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mordechaiwalder/Desktop/LAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805DCFEE-C83A-9041-87F7-C04590DCA26F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0460B85-6A77-674F-9D8A-BC079BE2A6CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="7700" windowWidth="28040" windowHeight="16720" xr2:uid="{13806B0B-7162-3741-B18F-4DC3ECC1CD43}"/>
+    <workbookView xWindow="16060" yWindow="460" windowWidth="12740" windowHeight="16760" xr2:uid="{13806B0B-7162-3741-B18F-4DC3ECC1CD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>1ahj.A</t>
   </si>
@@ -429,19 +429,424 @@
   </si>
   <si>
     <t>3c98.A</t>
+  </si>
+  <si>
+    <t>2da36879-7e94-48b0-a78b-d53dc6c6e90e</t>
+  </si>
+  <si>
+    <t>ec8a5b05-8d81-41b7-bac4-25cb6ca1b408</t>
+  </si>
+  <si>
+    <t>151f4d2b-e74b-4f3c-aa84-bd2504c11d6a</t>
+  </si>
+  <si>
+    <t>00d588da-0f4a-4a50-b408-a081fc10e0ea</t>
+  </si>
+  <si>
+    <t>5ccc200a-616c-4b36-8033-68ffdc9ccb19</t>
+  </si>
+  <si>
+    <t>3b043928-35d9-419d-9229-0bda8f44af9e</t>
+  </si>
+  <si>
+    <t>5cb7d175-8627-419b-8a35-897da928da78</t>
+  </si>
+  <si>
+    <t>21d29607-513e-4fff-b98a-9fc42cf2256a</t>
+  </si>
+  <si>
+    <t>2f3f11bb-a8b3-4b5d-b7a9-b85d8def262a</t>
+  </si>
+  <si>
+    <t>d15553ea-c166-478d-9440-02b12e424796</t>
+  </si>
+  <si>
+    <t>9473adca-10d5-4239-a1a9-6d3656b03a85</t>
+  </si>
+  <si>
+    <t>f9953af2-0f31-4f87-937e-b32e9863762f</t>
+  </si>
+  <si>
+    <t>e334f92a-fa2e-4120-b410-31324bf1fb39</t>
+  </si>
+  <si>
+    <t>07ec26fa-5d2e-4392-b34e-a8fe42d3f3d1</t>
+  </si>
+  <si>
+    <t>b52f7b7c-7ba3-4f8a-8c58-efe664aed920</t>
+  </si>
+  <si>
+    <t>1e6f1859-5f79-4504-bbd4-0847d1b5c6f8</t>
+  </si>
+  <si>
+    <t>2a3a5840-f428-41ea-8bb8-79ba5ad24316</t>
+  </si>
+  <si>
+    <t>58fa842e-aca3-443c-9501-f162505ad756</t>
+  </si>
+  <si>
+    <t>52b291aa-bed0-471d-bb85-4d797a29025a</t>
+  </si>
+  <si>
+    <t>1f2662f2-2dac-4b9a-bdd0-87ba39a06531</t>
+  </si>
+  <si>
+    <t>56d996b7-e809-4fa4-8e32-5ec4aafc12d1</t>
+  </si>
+  <si>
+    <t>5b163bf8-4e79-4495-b255-4d2f2dd5e1d5</t>
+  </si>
+  <si>
+    <t>19b78f3b-2dcc-4ba2-9d17-8474fcbe382f</t>
+  </si>
+  <si>
+    <t>a887c876-279a-40c1-996d-271d4bfc30f0</t>
+  </si>
+  <si>
+    <t>e97ae5ab-9e75-48a0-bfcd-f1238ceda83f</t>
+  </si>
+  <si>
+    <t>dd2a28c8-f5a0-48b7-9d31-ffbd37dcabb1</t>
+  </si>
+  <si>
+    <t>8c68e3b2-c4df-4f8d-8b46-9a35ac531799</t>
+  </si>
+  <si>
+    <t>4cfe37f8-4a6a-48f2-a18b-347d1b3ae4a2</t>
+  </si>
+  <si>
+    <t>8f30bd10-7d4b-48cd-bd14-0c9fe5c0775d</t>
+  </si>
+  <si>
+    <t>396916e8-d071-44d3-9b6b-da475fe587fd</t>
+  </si>
+  <si>
+    <t>60719cf1-f852-49d9-a5c2-abb376e777d8</t>
+  </si>
+  <si>
+    <t>b4881e76-962c-4eda-a2dd-4462a90d0ab3</t>
+  </si>
+  <si>
+    <t>56689dd8-4d90-40b7-969b-f8aa7a6f4609</t>
+  </si>
+  <si>
+    <t>21c43945-6260-4433-abb6-89eac668b07d</t>
+  </si>
+  <si>
+    <t>f8d921cd-1884-4214-b3a6-4cbfd696bc6d</t>
+  </si>
+  <si>
+    <t>b5bdc928-f937-4a37-94c4-8c7bda8fac8f</t>
+  </si>
+  <si>
+    <t>7057becd-4fca-409b-9b87-fcf1caea98a7</t>
+  </si>
+  <si>
+    <t>e0b20ad5-c8db-43be-8a15-d1b68e8621e8</t>
+  </si>
+  <si>
+    <t>504c0fa2-ab9f-466e-b951-3f8deaee7641</t>
+  </si>
+  <si>
+    <t>b965187e-c936-401e-a0cd-748adad9bf34</t>
+  </si>
+  <si>
+    <t>3381d664-8c3f-4628-b4ae-fd1599d2240e</t>
+  </si>
+  <si>
+    <t>06810060-3bda-4650-b5dc-dc5cf03a9c08</t>
+  </si>
+  <si>
+    <t>ef2e3e68-5c57-4985-bffc-a520ab5682a7</t>
+  </si>
+  <si>
+    <t>924d61af-9c48-42fa-9b94-046e6f3bddac</t>
+  </si>
+  <si>
+    <t>a74240b4-cdaf-4ed9-ac91-17272d538c52</t>
+  </si>
+  <si>
+    <t>73094e77-81df-4bad-abbe-7079feab8506</t>
+  </si>
+  <si>
+    <t>af595c5a-fd24-4ada-946b-c6a0f93af88f</t>
+  </si>
+  <si>
+    <t>f91dd912-fbf6-46dd-a6b4-43adb6b2f380</t>
+  </si>
+  <si>
+    <t>bc878266-00a7-4c1e-a0a1-b68aa8593e1d</t>
+  </si>
+  <si>
+    <t>05d6f67d-628a-4286-a48c-c0cc27051cd8</t>
+  </si>
+  <si>
+    <t>82fad403-3f64-42f0-bcdc-924d9ed14bbf</t>
+  </si>
+  <si>
+    <t>fff44004-5fff-4797-9c71-625498416384</t>
+  </si>
+  <si>
+    <t>8680268b-0177-4e26-8bd9-3796d631131f</t>
+  </si>
+  <si>
+    <t>4ae240bc-780f-4956-a677-2bb478641d98</t>
+  </si>
+  <si>
+    <t>cee79630-e5ba-44c5-9409-1cfc4128885e</t>
+  </si>
+  <si>
+    <t>56e794fe-2dbf-4fda-ad1c-0bcc2d8b6c7b</t>
+  </si>
+  <si>
+    <t>c7bb7fd0-47a6-4047-aa4f-aa1ac233d1f3</t>
+  </si>
+  <si>
+    <t>69204168-a23c-4b50-8a1f-c71ab31ae4d0</t>
+  </si>
+  <si>
+    <t>7dc94316-1cd8-44d3-badc-130dd0f327d1</t>
+  </si>
+  <si>
+    <t>0328cf20-58b7-49df-a2be-80035fca570e</t>
+  </si>
+  <si>
+    <t>8ee93c9f-1949-4b92-b4c8-f97e3e064613</t>
+  </si>
+  <si>
+    <t>a107dab0-7508-419b-ac8a-ae87c3cf962a</t>
+  </si>
+  <si>
+    <t>65207f58-3e0f-47f6-a329-5c9297ea1dda</t>
+  </si>
+  <si>
+    <t>4df9364c-2296-4be3-bbfa-19bbd815c3c4</t>
+  </si>
+  <si>
+    <t>752bbc48-9758-407f-8e00-611aca1183de</t>
+  </si>
+  <si>
+    <t>706fe0e3-06a0-4307-a343-00aa44d75e65</t>
+  </si>
+  <si>
+    <t>91601177-1a53-4c7c-89fd-d85710c62752</t>
+  </si>
+  <si>
+    <t>16d5afec-67f7-4a75-b4dd-850ee174e28b</t>
+  </si>
+  <si>
+    <t>25b6fbeb-34ec-4772-991c-d100922666f4</t>
+  </si>
+  <si>
+    <t>71cb209d-156d-4331-8789-dd505fbb4ce3</t>
+  </si>
+  <si>
+    <t>2e20140e-f6e3-4b8e-8d8e-66ccc1490cdb</t>
+  </si>
+  <si>
+    <t>5f4a62a5-089c-4056-9510-c256dff7c6f1</t>
+  </si>
+  <si>
+    <t>5660a9d5-7561-4107-8e37-e7e4105b28a3</t>
+  </si>
+  <si>
+    <t>584f9436-e58e-4674-ac63-dbda62ff32c9</t>
+  </si>
+  <si>
+    <t>4b798ff4-0e1c-4fc0-af8d-fba91a2cd4a3</t>
+  </si>
+  <si>
+    <t>e825efcd-4b81-4c70-847c-5285cdce7ced</t>
+  </si>
+  <si>
+    <t>a6ff4a85-7a1d-4617-9a8c-2523dd3c27fe</t>
+  </si>
+  <si>
+    <t>31c12c77-e3e5-4bc4-95a9-06d23ab07453</t>
+  </si>
+  <si>
+    <t>4f441f1e-8443-462f-bbc5-7f5dab7a0a53</t>
+  </si>
+  <si>
+    <t>0b83b643-3d73-4571-a24e-42db72878132</t>
+  </si>
+  <si>
+    <t>6e38a023-bb54-4bcb-88a5-f3e3f556f53f</t>
+  </si>
+  <si>
+    <t>b4e87247-69b5-467b-86e3-e3b489e11fbb</t>
+  </si>
+  <si>
+    <t>5957d92d-131f-43bf-ba85-1dbb49f9d381</t>
+  </si>
+  <si>
+    <t>22349e42-1bed-4c50-b0e3-fb3c6ba28e4d</t>
+  </si>
+  <si>
+    <t>fd3a7225-65f1-4182-a3c9-5a203f992a0d</t>
+  </si>
+  <si>
+    <t>27ed170d-ecb0-4dfc-95cf-2c164c0a8014</t>
+  </si>
+  <si>
+    <t>fc2a3ef9-c601-4630-b559-6b61cf20f4f1</t>
+  </si>
+  <si>
+    <t>354784fb-e2f0-458c-bd69-e9c1081d14ca</t>
+  </si>
+  <si>
+    <t>26b3f608-9f4b-46b7-b491-6dec038f6ea0</t>
+  </si>
+  <si>
+    <t>118564c2-b205-4a92-92bc-2e2777c30889</t>
+  </si>
+  <si>
+    <t>3511de10-6c9d-455d-b296-fb0f50c4f010</t>
+  </si>
+  <si>
+    <t>4ea28c77-8251-4826-a084-87cbc251fe19</t>
+  </si>
+  <si>
+    <t>8194015d-f4dd-4ed5-8956-7e8b418cb6a8</t>
+  </si>
+  <si>
+    <t>242df226-79fc-473c-8641-115606048e15</t>
+  </si>
+  <si>
+    <t>24567de8-c12d-4fba-b0e6-be24d6a57d77</t>
+  </si>
+  <si>
+    <t>86e5d7cd-63ef-425e-9498-a19f204286b0</t>
+  </si>
+  <si>
+    <t>6e6db17b-58df-4111-9d50-ca557ad40402</t>
+  </si>
+  <si>
+    <t>573c0e5d-adfa-4797-a8ed-daa46a1b4b9c</t>
+  </si>
+  <si>
+    <t>2fc59d84-b77e-4669-a26e-8cee1154b3c8</t>
+  </si>
+  <si>
+    <t>44a783f9-fc82-47d8-9ff5-e680baa10bda</t>
+  </si>
+  <si>
+    <t>78eebe28-2230-49a0-afca-73517adb8f17</t>
+  </si>
+  <si>
+    <t>4d3044e0-4036-418f-bbcc-4b39143d23f5</t>
+  </si>
+  <si>
+    <t>da4872ee-88fe-4cf8-8c9a-aba07d52f4d2</t>
+  </si>
+  <si>
+    <t>63c9fe36-1694-4097-8860-71fb71c94a5f</t>
+  </si>
+  <si>
+    <t>edb0afe7-6360-45ca-ba2b-8a40c44ae334</t>
+  </si>
+  <si>
+    <t>8978e7ad-42d9-477b-a165-ead3ccffffa3</t>
+  </si>
+  <si>
+    <t>dc66bf5d-4e35-4711-a8e4-61906b5b77aa</t>
+  </si>
+  <si>
+    <t>123d7ba9-bf2a-402e-b1f5-6a8da7b531a7</t>
+  </si>
+  <si>
+    <t>32f003b4-402b-4011-af7e-650ab0885d6a</t>
+  </si>
+  <si>
+    <t>60eaa2bd-d68d-4f93-bd2f-054e01f00332</t>
+  </si>
+  <si>
+    <t>f1c6fe5d-5971-4792-a59f-ebde9ccade02</t>
+  </si>
+  <si>
+    <t>7220e4ff-c82b-4290-a450-dc33a64964bd</t>
+  </si>
+  <si>
+    <t>e1d608c3-3d5f-4083-ab32-e34fa0e16002</t>
+  </si>
+  <si>
+    <t>53470b3c-e91c-4442-83dc-a478227a195a</t>
+  </si>
+  <si>
+    <t>58a79025-f13d-4ffc-813e-d5eee91f31b7</t>
+  </si>
+  <si>
+    <t>7ed49950-128e-4e0e-b933-0402cac23bb4</t>
+  </si>
+  <si>
+    <t>f8bb0fd0-50fe-4f34-ae78-1adf67d0a000</t>
+  </si>
+  <si>
+    <t>9983543b-4bf2-4082-b9e2-0ff2ced83481</t>
+  </si>
+  <si>
+    <t>250756e3-0450-40ad-8527-c5bc8f818cbb</t>
+  </si>
+  <si>
+    <t>9f31529c-4028-4031-b6a2-e14cfb19933b</t>
+  </si>
+  <si>
+    <t>9ad9fcec-ef6a-473f-86e0-6ea93f9afcda</t>
+  </si>
+  <si>
+    <t>86a94429-5bb9-48fa-858e-f6758556395a</t>
+  </si>
+  <si>
+    <t>899cb4bf-3229-440a-84d1-140df52e2d9c</t>
+  </si>
+  <si>
+    <t>6bc800a6-abe9-40a3-aaf5-9dff17a6b8c4</t>
+  </si>
+  <si>
+    <t>426a9d3b-f63b-4e74-b29d-dc1c234ed5bd</t>
+  </si>
+  <si>
+    <t>1bba1e4d-0e83-4e67-8664-932d4aabee39</t>
+  </si>
+  <si>
+    <t>25ebcc59-5593-45d0-9267-4fd39c45ef6d</t>
+  </si>
+  <si>
+    <t>2bb37e36-66c3-49f4-8d80-c93f35ae387f</t>
+  </si>
+  <si>
+    <t>a4b4e5f1-fa0c-4b14-8769-5a2658d3c322</t>
+  </si>
+  <si>
+    <t>511801c5-a19c-496d-8e59-ffb9221c3b17</t>
+  </si>
+  <si>
+    <t>31de9d65-7af4-4c83-93fd-4aa11864594f</t>
+  </si>
+  <si>
+    <t>85f612b4-9075-4fa8-855e-da2eb6d7301f</t>
+  </si>
+  <si>
+    <t>c51b7687-3dd3-4245-b1c4-4b7903c73036</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -464,8 +869,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,677 +1187,1079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD967FF-871B-1743-82CC-2703D05BBB09}">
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
